--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_45.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_45.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_9</t>
+          <t>model_1_45_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999381516706165</v>
+        <v>0.936795670729676</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8273139358301047</v>
+        <v>0.7510029402167444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8207760949732826</v>
+        <v>0.6488021675294056</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996069607296438</v>
+        <v>0.9633402584226727</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002574453222131848</v>
+        <v>0.2630897079431289</v>
       </c>
       <c r="G2" t="n">
-        <v>1.154752506250301</v>
+        <v>1.665044485296667</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6410735162814677</v>
+        <v>1.256214283126969</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001082671782122799</v>
+        <v>0.1649272574986553</v>
       </c>
       <c r="J2" t="n">
-        <v>0.02565524219633358</v>
+        <v>1.261833213200736</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01604510274860167</v>
+        <v>0.5129227114713569</v>
       </c>
       <c r="L2" t="n">
-        <v>1.003958293080544</v>
+        <v>0.9139345303553035</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01629779707767378</v>
+        <v>0.5210007314424286</v>
       </c>
       <c r="N2" t="n">
-        <v>146.5294064026554</v>
+        <v>36.6705204202464</v>
       </c>
       <c r="O2" t="n">
-        <v>287.8645789458718</v>
+        <v>73.63510400847221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_5</t>
+          <t>model_1_45_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999397562153555</v>
+        <v>0.9368153519574206</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8272764388597809</v>
+        <v>0.7508728884885968</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8200679555970255</v>
+        <v>0.6487170512723499</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996587334421995</v>
+        <v>0.9631376640958353</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0002507663619009349</v>
+        <v>0.2630077843072156</v>
       </c>
       <c r="G3" t="n">
-        <v>1.155003248663514</v>
+        <v>1.665914141801623</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6436064897700592</v>
+        <v>1.256518739043133</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0009400579030641262</v>
+        <v>0.1658387021862724</v>
       </c>
       <c r="J3" t="n">
-        <v>0.02627339050258487</v>
+        <v>1.261844901259821</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01583560424805239</v>
+        <v>0.5128428456235063</v>
       </c>
       <c r="L3" t="n">
-        <v>1.00385560221725</v>
+        <v>0.9139613303249983</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01608499918516252</v>
+        <v>0.5209196077873109</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5819777628057</v>
+        <v>36.67114329823219</v>
       </c>
       <c r="O3" t="n">
-        <v>287.9171503060221</v>
+        <v>73.635726886458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_7</t>
+          <t>model_1_45_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999937395762595</v>
+        <v>0.9368336642941354</v>
       </c>
       <c r="C4" t="n">
-        <v>0.827239444673229</v>
+        <v>0.7506774351860954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8203014971126713</v>
+        <v>0.6486355113719622</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996232771512736</v>
+        <v>0.9629356890329156</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0002605918095332218</v>
+        <v>0.2629315587167586</v>
       </c>
       <c r="G4" t="n">
-        <v>1.15525062895933</v>
+        <v>1.667221138935429</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6427711253101093</v>
+        <v>1.256810402538865</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001037726325991271</v>
+        <v>0.1667473608886311</v>
       </c>
       <c r="J4" t="n">
-        <v>0.02596586164447525</v>
+        <v>1.261850808102982</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01614285630033365</v>
+        <v>0.5127685235237812</v>
       </c>
       <c r="L4" t="n">
-        <v>1.00400667119392</v>
+        <v>0.9139862662728653</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01639709015012784</v>
+        <v>0.52084411518881</v>
       </c>
       <c r="N4" t="n">
-        <v>146.5051106460673</v>
+        <v>36.67172302737397</v>
       </c>
       <c r="O4" t="n">
-        <v>287.8402831892838</v>
+        <v>73.63630661559979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_8</t>
+          <t>model_1_45_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999394407262998</v>
+        <v>0.9368813892047494</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8272357659377423</v>
+        <v>0.7501535366078607</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8204122742197946</v>
+        <v>0.6484131622074845</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996254252842048</v>
+        <v>0.9623339154128957</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0002520795935179032</v>
+        <v>0.262732902502224</v>
       </c>
       <c r="G5" t="n">
-        <v>1.155275228680468</v>
+        <v>1.670724451140417</v>
       </c>
       <c r="H5" t="n">
-        <v>0.642374882021155</v>
+        <v>1.257605732607657</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001031809047275751</v>
+        <v>0.1694546596451042</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02625956782926402</v>
+        <v>1.261953913827579</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01587701462863542</v>
+        <v>0.5125747774737106</v>
       </c>
       <c r="L5" t="n">
-        <v>1.003875793516812</v>
+        <v>0.9140512533851907</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01612706173784454</v>
+        <v>0.5206473178321258</v>
       </c>
       <c r="N5" t="n">
-        <v>146.5715313460577</v>
+        <v>36.67323468538891</v>
       </c>
       <c r="O5" t="n">
-        <v>287.9067038892741</v>
+        <v>73.63781827361473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_6</t>
+          <t>model_1_45_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999370278443397</v>
+        <v>0.9369756648891675</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8272331374358707</v>
+        <v>0.7489381904604686</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8202986004443454</v>
+        <v>0.6478528266766643</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996208332022164</v>
+        <v>0.9601868209167502</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0002621232790933493</v>
+        <v>0.2623404774489715</v>
       </c>
       <c r="G6" t="n">
-        <v>1.155292805484587</v>
+        <v>1.678851476424182</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6427814865247523</v>
+        <v>1.259610020311279</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001044458464178998</v>
+        <v>0.1791141496361287</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0260165812792456</v>
+        <v>1.262088327491133</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0161902217122975</v>
+        <v>0.5121918365700214</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00403021796226</v>
+        <v>0.9141796287852494</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01644520151998207</v>
+        <v>0.520258345992004</v>
       </c>
       <c r="N6" t="n">
-        <v>146.493391267955</v>
+        <v>36.67622417326852</v>
       </c>
       <c r="O6" t="n">
-        <v>287.8285638111714</v>
+        <v>73.64080776149434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_4</t>
+          <t>model_1_45_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999372202143239</v>
+        <v>0.9369813641103959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8272167336846745</v>
+        <v>0.7484438980319039</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8198839007244521</v>
+        <v>0.6477887190166338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996509494926592</v>
+        <v>0.9598074379873685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002613225338984419</v>
+        <v>0.262316754288457</v>
       </c>
       <c r="G7" t="n">
-        <v>1.155402497444367</v>
+        <v>1.682156812170001</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6442648433771395</v>
+        <v>1.259839329694032</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0009614996854921588</v>
+        <v>0.1808209425209818</v>
       </c>
       <c r="J7" t="n">
-        <v>0.02743063786197005</v>
+        <v>1.262066640904748</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01616547351296713</v>
+        <v>0.5121686775745438</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004017906283273</v>
+        <v>0.9141873894269221</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01642006356125138</v>
+        <v>0.520234822265498</v>
       </c>
       <c r="N7" t="n">
-        <v>146.4995103030081</v>
+        <v>36.67640503924421</v>
       </c>
       <c r="O7" t="n">
-        <v>287.8346828462245</v>
+        <v>73.64098862747004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_3</t>
+          <t>model_1_45_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999444436298123</v>
+        <v>0.936983107819207</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8271628413562297</v>
+        <v>0.748228761711961</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8198617832511707</v>
+        <v>0.6477606682909577</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997245816870381</v>
+        <v>0.9596190795349901</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0002312548740854732</v>
+        <v>0.2623094960539794</v>
       </c>
       <c r="G8" t="n">
-        <v>1.15576287569283</v>
+        <v>1.683595429732071</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6443439562966226</v>
+        <v>1.259939665513301</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0007586713547820574</v>
+        <v>0.1816683419199089</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02704959836074408</v>
+        <v>1.262051009076785</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01520706658384428</v>
+        <v>0.5121615917403212</v>
       </c>
       <c r="L8" t="n">
-        <v>1.003555607692014</v>
+        <v>0.9141897638389203</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01544656268105028</v>
+        <v>0.5202276248364697</v>
       </c>
       <c r="N8" t="n">
-        <v>146.743980209335</v>
+        <v>36.67646037947527</v>
       </c>
       <c r="O8" t="n">
-        <v>288.0791527525514</v>
+        <v>73.64104396770109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_2</t>
+          <t>model_1_45_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999494752155218</v>
+        <v>0.936984121483553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8270536010213053</v>
+        <v>0.7480211234536478</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8197318080714133</v>
+        <v>0.64773518025444</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999778950298759</v>
+        <v>0.959431647603035</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002103107642420353</v>
+        <v>0.2623052766490773</v>
       </c>
       <c r="G9" t="n">
-        <v>1.156493366315474</v>
+        <v>1.684983907721498</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6448088699782203</v>
+        <v>1.260030834742044</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0006089067735228861</v>
+        <v>0.1825115730277941</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02793457065828381</v>
+        <v>1.262031831109938</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01450209516732101</v>
+        <v>0.5121574725112163</v>
       </c>
       <c r="L9" t="n">
-        <v>1.003233586206605</v>
+        <v>0.9141911441478169</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01473048866942965</v>
+        <v>0.5202234407336241</v>
       </c>
       <c r="N9" t="n">
-        <v>146.9338485827836</v>
+        <v>36.67649255092847</v>
       </c>
       <c r="O9" t="n">
-        <v>288.269021126</v>
+        <v>73.64107613915429</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_0</t>
+          <t>model_1_45_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999434277588195</v>
+        <v>0.9369844455656353</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8269562750883626</v>
+        <v>0.7479359514641051</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8195015149253496</v>
+        <v>0.647711902999631</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9997763116189874</v>
+        <v>0.9592450814418384</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002354834642136396</v>
+        <v>0.262303927648758</v>
       </c>
       <c r="G10" t="n">
-        <v>1.157144185277207</v>
+        <v>1.685553453207751</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6456326152085266</v>
+        <v>1.260114096132803</v>
       </c>
       <c r="I10" t="n">
-        <v>0.000616175319813715</v>
+        <v>0.1833509091492256</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02685658224877467</v>
+        <v>1.262009318257819</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01534547047873214</v>
+        <v>0.5121561555314531</v>
       </c>
       <c r="L10" t="n">
-        <v>1.003620623435552</v>
+        <v>0.9141915854510779</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01558714629892949</v>
+        <v>0.5202221030127462</v>
       </c>
       <c r="N10" t="n">
-        <v>146.7077397252527</v>
+        <v>36.67650283668257</v>
       </c>
       <c r="O10" t="n">
-        <v>288.0429122684691</v>
+        <v>73.64108642490839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_45_1</t>
+          <t>model_1_45_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999480766600918</v>
+        <v>0.9369764711498526</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8268991746135115</v>
+        <v>0.7474041249798635</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8193210885802753</v>
+        <v>0.647630886816525</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999793509677086</v>
+        <v>0.9583262225429632</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002161322885566523</v>
+        <v>0.262337121367345</v>
       </c>
       <c r="G11" t="n">
-        <v>1.15752601641546</v>
+        <v>1.68910977935671</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6462779897831369</v>
+        <v>1.260403886322185</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005688012948369076</v>
+        <v>0.187484732021383</v>
       </c>
       <c r="J11" t="n">
-        <v>0.02837001413435777</v>
+        <v>1.261986341905923</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01470143831591495</v>
+        <v>0.5121885603636077</v>
       </c>
       <c r="L11" t="n">
-        <v>1.003323093754126</v>
+        <v>0.9141807266721397</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0149329712733439</v>
+        <v>0.5202550181886142</v>
       </c>
       <c r="N11" t="n">
-        <v>146.8792397814554</v>
+        <v>36.67624975912646</v>
       </c>
       <c r="O11" t="n">
-        <v>288.2144123246718</v>
+        <v>73.64083334735227</v>
       </c>
     </row>
   </sheetData>
